--- a/natmiOut/OldD7/LR-pairs_lrc2p/Vcam1-Itga4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Vcam1-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.56551464986131</v>
+        <v>6.664768333333334</v>
       </c>
       <c r="H2">
-        <v>5.56551464986131</v>
+        <v>19.994305</v>
       </c>
       <c r="I2">
-        <v>0.05702532795953111</v>
+        <v>0.06516174319532789</v>
       </c>
       <c r="J2">
-        <v>0.05702532795953111</v>
+        <v>0.0651617431953279</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.317727218227285</v>
+        <v>0.3809099999999999</v>
       </c>
       <c r="N2">
-        <v>0.317727218227285</v>
+        <v>1.14273</v>
       </c>
       <c r="O2">
-        <v>0.006115759881883679</v>
+        <v>0.006635732896411959</v>
       </c>
       <c r="P2">
-        <v>0.006115759881883679</v>
+        <v>0.006635732896411961</v>
       </c>
       <c r="Q2">
-        <v>1.768315487703636</v>
+        <v>2.53867690585</v>
       </c>
       <c r="R2">
-        <v>1.768315487703636</v>
+        <v>22.84809215265</v>
       </c>
       <c r="S2">
-        <v>0.0003487532129861601</v>
+        <v>0.0004323959229087853</v>
       </c>
       <c r="T2">
-        <v>0.0003487532129861601</v>
+        <v>0.0004323959229087856</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.56551464986131</v>
+        <v>6.664768333333334</v>
       </c>
       <c r="H3">
-        <v>5.56551464986131</v>
+        <v>19.994305</v>
       </c>
       <c r="I3">
-        <v>0.05702532795953111</v>
+        <v>0.06516174319532789</v>
       </c>
       <c r="J3">
-        <v>0.05702532795953111</v>
+        <v>0.0651617431953279</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.3201449905407</v>
+        <v>0.3194813333333333</v>
       </c>
       <c r="N3">
-        <v>50.3201449905407</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O3">
-        <v>0.968585334617363</v>
+        <v>0.005565600255676026</v>
       </c>
       <c r="P3">
-        <v>0.968585334617363</v>
+        <v>0.005565600255676028</v>
       </c>
       <c r="Q3">
-        <v>280.0575041279994</v>
+        <v>2.129269073491111</v>
       </c>
       <c r="R3">
-        <v>280.0575041279994</v>
+        <v>19.16342166142</v>
       </c>
       <c r="S3">
-        <v>0.0552338963633473</v>
+        <v>0.0003626642145882124</v>
       </c>
       <c r="T3">
-        <v>0.0552338963633473</v>
+        <v>0.0003626642145882126</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.56551464986131</v>
+        <v>6.664768333333334</v>
       </c>
       <c r="H4">
-        <v>5.56551464986131</v>
+        <v>19.994305</v>
       </c>
       <c r="I4">
-        <v>0.05702532795953111</v>
+        <v>0.06516174319532789</v>
       </c>
       <c r="J4">
-        <v>0.05702532795953111</v>
+        <v>0.0651617431953279</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.31433395427447</v>
+        <v>54.69403966666666</v>
       </c>
       <c r="N4">
-        <v>1.31433395427447</v>
+        <v>164.082119</v>
       </c>
       <c r="O4">
-        <v>0.02529890550075341</v>
+        <v>0.9528104755815301</v>
       </c>
       <c r="P4">
-        <v>0.02529890550075341</v>
+        <v>0.9528104755815303</v>
       </c>
       <c r="Q4">
-        <v>7.314944877324709</v>
+        <v>364.5231035924772</v>
       </c>
       <c r="R4">
-        <v>7.314944877324709</v>
+        <v>3280.707932332295</v>
       </c>
       <c r="S4">
-        <v>0.001442678383197649</v>
+        <v>0.06208679152366189</v>
       </c>
       <c r="T4">
-        <v>0.001442678383197649</v>
+        <v>0.06208679152366192</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.1094810435203</v>
+        <v>6.664768333333334</v>
       </c>
       <c r="H5">
-        <v>47.1094810435203</v>
+        <v>19.994305</v>
       </c>
       <c r="I5">
-        <v>0.4826927562893044</v>
+        <v>0.06516174319532789</v>
       </c>
       <c r="J5">
-        <v>0.4826927562893044</v>
+        <v>0.0651617431953279</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.317727218227285</v>
+        <v>2.008422</v>
       </c>
       <c r="N5">
-        <v>0.317727218227285</v>
+        <v>6.025265999999999</v>
       </c>
       <c r="O5">
-        <v>0.006115759881883679</v>
+        <v>0.03498819126638183</v>
       </c>
       <c r="P5">
-        <v>0.006115759881883679</v>
+        <v>0.03498819126638184</v>
       </c>
       <c r="Q5">
-        <v>14.96796436408872</v>
+        <v>13.38566734557</v>
       </c>
       <c r="R5">
-        <v>14.96796436408872</v>
+        <v>120.47100611013</v>
       </c>
       <c r="S5">
-        <v>0.002952032994189984</v>
+        <v>0.002279891534168987</v>
       </c>
       <c r="T5">
-        <v>0.002952032994189984</v>
+        <v>0.002279891534168988</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.1094810435203</v>
+        <v>47.25592399999999</v>
       </c>
       <c r="H6">
-        <v>47.1094810435203</v>
+        <v>141.767772</v>
       </c>
       <c r="I6">
-        <v>0.4826927562893044</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="J6">
-        <v>0.4826927562893044</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>50.3201449905407</v>
+        <v>0.3809099999999999</v>
       </c>
       <c r="N6">
-        <v>50.3201449905407</v>
+        <v>1.14273</v>
       </c>
       <c r="O6">
-        <v>0.968585334617363</v>
+        <v>0.006635732896411959</v>
       </c>
       <c r="P6">
-        <v>0.968585334617363</v>
+        <v>0.006635732896411961</v>
       </c>
       <c r="Q6">
-        <v>2370.55591653907</v>
+        <v>18.00025401083999</v>
       </c>
       <c r="R6">
-        <v>2370.55591653907</v>
+        <v>162.00228609756</v>
       </c>
       <c r="S6">
-        <v>0.4675291248678531</v>
+        <v>0.003065863335217816</v>
       </c>
       <c r="T6">
-        <v>0.4675291248678531</v>
+        <v>0.003065863335217817</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>47.1094810435203</v>
+        <v>47.25592399999999</v>
       </c>
       <c r="H7">
-        <v>47.1094810435203</v>
+        <v>141.767772</v>
       </c>
       <c r="I7">
-        <v>0.4826927562893044</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="J7">
-        <v>0.4826927562893044</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.31433395427447</v>
+        <v>0.3194813333333333</v>
       </c>
       <c r="N7">
-        <v>1.31433395427447</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O7">
-        <v>0.02529890550075341</v>
+        <v>0.005565600255676026</v>
       </c>
       <c r="P7">
-        <v>0.02529890550075341</v>
+        <v>0.005565600255676028</v>
       </c>
       <c r="Q7">
-        <v>61.91759050374822</v>
+        <v>15.09738560741867</v>
       </c>
       <c r="R7">
-        <v>61.91759050374822</v>
+        <v>135.876470466768</v>
       </c>
       <c r="S7">
-        <v>0.01221159842726131</v>
+        <v>0.002571437101029556</v>
       </c>
       <c r="T7">
-        <v>0.01221159842726131</v>
+        <v>0.002571437101029558</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.204973893948</v>
+        <v>47.25592399999999</v>
       </c>
       <c r="H8">
-        <v>19.204973893948</v>
+        <v>141.767772</v>
       </c>
       <c r="I8">
-        <v>0.1967778370296643</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="J8">
-        <v>0.1967778370296643</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.317727218227285</v>
+        <v>54.69403966666666</v>
       </c>
       <c r="N8">
-        <v>0.317727218227285</v>
+        <v>164.082119</v>
       </c>
       <c r="O8">
-        <v>0.006115759881883679</v>
+        <v>0.9528104755815301</v>
       </c>
       <c r="P8">
-        <v>0.006115759881883679</v>
+        <v>0.9528104755815303</v>
       </c>
       <c r="Q8">
-        <v>6.101942931451728</v>
+        <v>2584.617381740985</v>
       </c>
       <c r="R8">
-        <v>6.101942931451728</v>
+        <v>23261.55643566886</v>
       </c>
       <c r="S8">
-        <v>0.001203446001349865</v>
+        <v>0.4402206580792896</v>
       </c>
       <c r="T8">
-        <v>0.001203446001349865</v>
+        <v>0.4402206580792898</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.204973893948</v>
+        <v>47.25592399999999</v>
       </c>
       <c r="H9">
-        <v>19.204973893948</v>
+        <v>141.767772</v>
       </c>
       <c r="I9">
-        <v>0.1967778370296643</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="J9">
-        <v>0.1967778370296643</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>50.3201449905407</v>
+        <v>2.008422</v>
       </c>
       <c r="N9">
-        <v>50.3201449905407</v>
+        <v>6.025265999999999</v>
       </c>
       <c r="O9">
-        <v>0.968585334617363</v>
+        <v>0.03498819126638183</v>
       </c>
       <c r="P9">
-        <v>0.968585334617363</v>
+        <v>0.03498819126638184</v>
       </c>
       <c r="Q9">
-        <v>966.3970708830124</v>
+        <v>94.90983739192798</v>
       </c>
       <c r="R9">
-        <v>966.3970708830124</v>
+        <v>854.1885365273517</v>
       </c>
       <c r="S9">
-        <v>0.1905961271246583</v>
+        <v>0.01616536024637011</v>
       </c>
       <c r="T9">
-        <v>0.1905961271246583</v>
+        <v>0.01616536024637011</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.204973893948</v>
+        <v>20.98736333333333</v>
       </c>
       <c r="H10">
-        <v>19.204973893948</v>
+        <v>62.96209</v>
       </c>
       <c r="I10">
-        <v>0.1967778370296643</v>
+        <v>0.2051944060881897</v>
       </c>
       <c r="J10">
-        <v>0.1967778370296643</v>
+        <v>0.2051944060881898</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.31433395427447</v>
+        <v>0.3809099999999999</v>
       </c>
       <c r="N10">
-        <v>1.31433395427447</v>
+        <v>1.14273</v>
       </c>
       <c r="O10">
-        <v>0.02529890550075341</v>
+        <v>0.006635732896411959</v>
       </c>
       <c r="P10">
-        <v>0.02529890550075341</v>
+        <v>0.006635732896411961</v>
       </c>
       <c r="Q10">
-        <v>25.24174927977064</v>
+        <v>7.994296567299998</v>
       </c>
       <c r="R10">
-        <v>25.24174927977064</v>
+        <v>71.94866910569999</v>
       </c>
       <c r="S10">
-        <v>0.004978263903656133</v>
+        <v>0.001361615270639115</v>
       </c>
       <c r="T10">
-        <v>0.004978263903656133</v>
+        <v>0.001361615270639116</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,57 +1089,57 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.7172709548197</v>
+        <v>20.98736333333333</v>
       </c>
       <c r="H11">
-        <v>25.7172709548197</v>
+        <v>62.96209</v>
       </c>
       <c r="I11">
-        <v>0.2635040787215002</v>
+        <v>0.2051944060881897</v>
       </c>
       <c r="J11">
-        <v>0.2635040787215002</v>
+        <v>0.2051944060881898</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.317727218227285</v>
+        <v>0.3194813333333333</v>
       </c>
       <c r="N11">
-        <v>0.317727218227285</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O11">
-        <v>0.006115759881883679</v>
+        <v>0.005565600255676026</v>
       </c>
       <c r="P11">
-        <v>0.006115759881883679</v>
+        <v>0.005565600255676028</v>
       </c>
       <c r="Q11">
-        <v>8.171076960872217</v>
+        <v>6.705070820884445</v>
       </c>
       <c r="R11">
-        <v>8.171076960872217</v>
+        <v>60.34563738796001</v>
       </c>
       <c r="S11">
-        <v>0.00161152767335767</v>
+        <v>0.001142030038987719</v>
       </c>
       <c r="T11">
-        <v>0.00161152767335767</v>
+        <v>0.00114203003898772</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.7172709548197</v>
+        <v>20.98736333333333</v>
       </c>
       <c r="H12">
-        <v>25.7172709548197</v>
+        <v>62.96209</v>
       </c>
       <c r="I12">
-        <v>0.2635040787215002</v>
+        <v>0.2051944060881897</v>
       </c>
       <c r="J12">
-        <v>0.2635040787215002</v>
+        <v>0.2051944060881898</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>50.3201449905407</v>
+        <v>54.69403966666666</v>
       </c>
       <c r="N12">
-        <v>50.3201449905407</v>
+        <v>164.082119</v>
       </c>
       <c r="O12">
-        <v>0.968585334617363</v>
+        <v>0.9528104755815301</v>
       </c>
       <c r="P12">
-        <v>0.968585334617363</v>
+        <v>0.9528104755815303</v>
       </c>
       <c r="Q12">
-        <v>1294.096803207548</v>
+        <v>1147.883682652079</v>
       </c>
       <c r="R12">
-        <v>1294.096803207548</v>
+        <v>10330.95314386871</v>
       </c>
       <c r="S12">
-        <v>0.2552261862615042</v>
+        <v>0.1955113796515577</v>
       </c>
       <c r="T12">
-        <v>0.2552261862615042</v>
+        <v>0.1955113796515577</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.7172709548197</v>
+        <v>20.98736333333333</v>
       </c>
       <c r="H13">
-        <v>25.7172709548197</v>
+        <v>62.96209</v>
       </c>
       <c r="I13">
-        <v>0.2635040787215002</v>
+        <v>0.2051944060881897</v>
       </c>
       <c r="J13">
-        <v>0.2635040787215002</v>
+        <v>0.2051944060881898</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.31433395427447</v>
+        <v>2.008422</v>
       </c>
       <c r="N13">
-        <v>1.31433395427447</v>
+        <v>6.025265999999999</v>
       </c>
       <c r="O13">
-        <v>0.02529890550075341</v>
+        <v>0.03498819126638183</v>
       </c>
       <c r="P13">
-        <v>0.02529890550075341</v>
+        <v>0.03498819126638184</v>
       </c>
       <c r="Q13">
-        <v>33.80108242719615</v>
+        <v>42.15148224066</v>
       </c>
       <c r="R13">
-        <v>33.80108242719615</v>
+        <v>379.36334016594</v>
       </c>
       <c r="S13">
-        <v>0.006666364786638321</v>
+        <v>0.007179381127005206</v>
       </c>
       <c r="T13">
-        <v>0.006666364786638321</v>
+        <v>0.007179381127005209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>27.37233166666667</v>
+      </c>
+      <c r="H14">
+        <v>82.116995</v>
+      </c>
+      <c r="I14">
+        <v>0.2676205319545753</v>
+      </c>
+      <c r="J14">
+        <v>0.2676205319545753</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3809099999999999</v>
+      </c>
+      <c r="N14">
+        <v>1.14273</v>
+      </c>
+      <c r="O14">
+        <v>0.006635732896411959</v>
+      </c>
+      <c r="P14">
+        <v>0.006635732896411961</v>
+      </c>
+      <c r="Q14">
+        <v>10.42639485515</v>
+      </c>
+      <c r="R14">
+        <v>93.83755369634999</v>
+      </c>
+      <c r="S14">
+        <v>0.001775858367646243</v>
+      </c>
+      <c r="T14">
+        <v>0.001775858367646244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>27.37233166666667</v>
+      </c>
+      <c r="H15">
+        <v>82.116995</v>
+      </c>
+      <c r="I15">
+        <v>0.2676205319545753</v>
+      </c>
+      <c r="J15">
+        <v>0.2676205319545753</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3194813333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.9584440000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.005565600255676026</v>
+      </c>
+      <c r="P15">
+        <v>0.005565600255676028</v>
+      </c>
+      <c r="Q15">
+        <v>8.744949017308889</v>
+      </c>
+      <c r="R15">
+        <v>78.70454115578001</v>
+      </c>
+      <c r="S15">
+        <v>0.001489468901070538</v>
+      </c>
+      <c r="T15">
+        <v>0.001489468901070539</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>27.37233166666667</v>
+      </c>
+      <c r="H16">
+        <v>82.116995</v>
+      </c>
+      <c r="I16">
+        <v>0.2676205319545753</v>
+      </c>
+      <c r="J16">
+        <v>0.2676205319545753</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>54.69403966666666</v>
+      </c>
+      <c r="N16">
+        <v>164.082119</v>
+      </c>
+      <c r="O16">
+        <v>0.9528104755815301</v>
+      </c>
+      <c r="P16">
+        <v>0.9528104755815303</v>
+      </c>
+      <c r="Q16">
+        <v>1497.103393945823</v>
+      </c>
+      <c r="R16">
+        <v>13473.9305455124</v>
+      </c>
+      <c r="S16">
+        <v>0.254991646327021</v>
+      </c>
+      <c r="T16">
+        <v>0.254991646327021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>27.37233166666667</v>
+      </c>
+      <c r="H17">
+        <v>82.116995</v>
+      </c>
+      <c r="I17">
+        <v>0.2676205319545753</v>
+      </c>
+      <c r="J17">
+        <v>0.2676205319545753</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.008422</v>
+      </c>
+      <c r="N17">
+        <v>6.025265999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.03498819126638183</v>
+      </c>
+      <c r="P17">
+        <v>0.03498819126638184</v>
+      </c>
+      <c r="Q17">
+        <v>54.97519311063</v>
+      </c>
+      <c r="R17">
+        <v>494.77673799567</v>
+      </c>
+      <c r="S17">
+        <v>0.00936355835883753</v>
+      </c>
+      <c r="T17">
+        <v>0.009363558358837532</v>
       </c>
     </row>
   </sheetData>
